--- a/new16X16.xlsx
+++ b/new16X16.xlsx
@@ -40,169 +40,169 @@
     <t xml:space="preserve">class</t>
   </si>
   <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.38.32.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.49.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.52.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.39.57.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.33.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.40.58.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.41.01.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.41.04.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.41.20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.41.23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.41.25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.41.27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_new/trainingtraining_set2.41.30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.50.55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.01.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.07.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.41.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.44.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.51.48.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.40.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.43.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.48.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.50.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.53.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.57.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.52.59.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.53.02.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.53.04.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.53.08.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/new16x16/trainingtraining_set9.53.14.png</t>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.38.32.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.25.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.49.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.52.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.39.57.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.33.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.40.58.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.01.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.04.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.25.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.50.55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.01.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.07.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.41.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.44.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.48.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.40.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.43.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.48.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.50.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.53.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.57.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.59.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.02.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.04.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.08.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.14.png</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/new16X16.xlsx
+++ b/new16X16.xlsx
@@ -115,94 +115,94 @@
     <t xml:space="preserve">/Users/KevinGao/Desktop/fiber_clot/fiber/16x16_modified/trainingtraining_set2.41.30.png</t>
   </si>
   <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.50.55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.01.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.07.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.41.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.44.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.51.48.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.34.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.37.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.40.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.43.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.48.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.50.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.53.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.55.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.57.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.52.59.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.02.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.04.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.08.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified16x16/trainingtraining_set9.53.14.png</t>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.50.55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.01.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.07.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.41.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.44.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.51.48.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.34.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.37.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.40.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.43.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.48.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.50.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.53.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.55.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.57.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.52.59.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.53.02.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.53.04.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.53.08.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Users/KevinGao/Desktop/background/16x16_modified/trainingtraining_set9.53.14.png</t>
   </si>
 </sst>
 </file>
@@ -563,8 +563,8 @@
   </sheetPr>
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
